--- a/게임기획.xlsx
+++ b/게임기획.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.158.49655"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="오브젝트" sheetId="1" r:id="rId1"/>
     <sheet name="장애물" sheetId="3" r:id="rId2"/>
     <sheet name="캐릭터" sheetId="4" r:id="rId3"/>
-    <sheet name="아이템" sheetId="2" r:id="rId4"/>
-    <sheet name="무기" sheetId="5" r:id="rId5"/>
+    <sheet name="무기" sheetId="5" r:id="rId4"/>
+    <sheet name="조작" sheetId="7" r:id="rId5"/>
     <sheet name="방어구" sheetId="6" r:id="rId6"/>
+    <sheet name="아이템 오브젝트" sheetId="2" r:id="rId7"/>
+    <sheet name="아이템" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="B">#REF!$B$3:$B$4</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -35,8 +35,22 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>일자</t>
   </si>
@@ -238,6 +252,210 @@
   </si>
   <si>
     <t>AK47</t>
+  </si>
+  <si>
+    <t>숫자키</t>
+  </si>
+  <si>
+    <t>주무기</t>
+  </si>
+  <si>
+    <t>보조무기</t>
+  </si>
+  <si>
+    <t>근접무기</t>
+  </si>
+  <si>
+    <t>투척무기</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>이동</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>뒤</t>
+  </si>
+  <si>
+    <t>왼쪽</t>
+  </si>
+  <si>
+    <t>오른쪽</t>
+  </si>
+  <si>
+    <t>마우스</t>
+  </si>
+  <si>
+    <t>우</t>
+  </si>
+  <si>
+    <t>좌</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>스코프, 조준</t>
+  </si>
+  <si>
+    <t>사격</t>
+  </si>
+  <si>
+    <t>견착</t>
+  </si>
+  <si>
+    <t>스코프</t>
+  </si>
+  <si>
+    <t>키보드</t>
+  </si>
+  <si>
+    <t>키별 세팅</t>
+  </si>
+  <si>
+    <t>spase</t>
+  </si>
+  <si>
+    <t>점프</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>엎드리기</t>
+  </si>
+  <si>
+    <t>앉기</t>
+  </si>
+  <si>
+    <t>맨손</t>
+  </si>
+  <si>
+    <t>좌 기울이기</t>
+  </si>
+  <si>
+    <t>우 기울이기</t>
+  </si>
+  <si>
+    <t>장전</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>maxkg까지</t>
+  </si>
+  <si>
+    <t>겹치기 가능</t>
+  </si>
+  <si>
+    <t>상호작용 범위 트리거</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>연사</t>
+  </si>
+  <si>
+    <t>점사</t>
+  </si>
+  <si>
+    <t>단발</t>
+  </si>
+  <si>
+    <t>연사속도(0~1)</t>
+  </si>
+  <si>
+    <t>미정</t>
+  </si>
+  <si>
+    <t>부속 파츠</t>
+  </si>
+  <si>
+    <t>기본 스펙</t>
+  </si>
+  <si>
+    <t>장전속도(0~1)</t>
+  </si>
+  <si>
+    <t>반동(0~1)</t>
+  </si>
+  <si>
+    <t>소음(0~1)</t>
+  </si>
+  <si>
+    <t>총구불꽃(bool)</t>
+  </si>
+  <si>
+    <t>탄알수(int)</t>
+  </si>
+  <si>
+    <t>탄 타입(string)</t>
+  </si>
+  <si>
+    <t>무기타입(type)</t>
+  </si>
+  <si>
+    <t>공격력(float)</t>
+  </si>
+  <si>
+    <t>사격 모드(type)</t>
+  </si>
+  <si>
+    <t>탄창</t>
+  </si>
+  <si>
+    <t>총구</t>
+  </si>
+  <si>
+    <t>손잡이</t>
+  </si>
+  <si>
+    <t>조준경</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>총기파츠</t>
+  </si>
+  <si>
+    <t>소음기</t>
+  </si>
+  <si>
+    <t>보정기</t>
   </si>
 </sst>
 </file>
@@ -868,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +1188,18 @@
     </xf>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1337,87 +1567,320 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="2" width="17.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="2" width="15.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="2" width="13.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="2" width="14.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="17.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="2" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="18.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="15.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="2" width="14.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="2" width="13.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="2" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="2" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="17" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
+      <c r="D6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1427,80 +1890,210 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="7" max="7" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="11.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="16.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="5" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="2" width="15.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="10" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="0" t="s">
-        <v>63</v>
-      </c>
+    <row r="1" spans="1:8">
+      <c r="A1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1522,4 +2115,250 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="17.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" style="2" width="15.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="13.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="2" width="14.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="2" width="22.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="2" width="11.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="16.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="19" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>